--- a/Assignment1/Analysis/analysis.xlsx
+++ b/Assignment1/Analysis/analysis.xlsx
@@ -221,11 +221,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -927,11 +927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127007000"/>
-        <c:axId val="2127015832"/>
+        <c:axId val="-2145965400"/>
+        <c:axId val="-2145956520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127007000"/>
+        <c:axId val="-2145965400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127015832"/>
+        <c:crossAx val="-2145956520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -975,7 +975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127015832"/>
+        <c:axId val="-2145956520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -1007,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127007000"/>
+        <c:crossAx val="-2145965400"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1624,11 +1624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126751160"/>
-        <c:axId val="2126743480"/>
+        <c:axId val="-2146562296"/>
+        <c:axId val="-2146554600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126751160"/>
+        <c:axId val="-2146562296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1662,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126743480"/>
+        <c:crossAx val="-2146554600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1672,7 +1672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126743480"/>
+        <c:axId val="-2146554600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1704,7 +1704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126751160"/>
+        <c:crossAx val="-2146562296"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2321,11 +2321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127109368"/>
-        <c:axId val="2127116840"/>
+        <c:axId val="-2145844744"/>
+        <c:axId val="-2145837272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127109368"/>
+        <c:axId val="-2145844744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2359,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127116840"/>
+        <c:crossAx val="-2145837272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2369,7 +2369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127116840"/>
+        <c:axId val="-2145837272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2401,7 +2401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127109368"/>
+        <c:crossAx val="-2145844744"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3022,11 +3022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127176504"/>
-        <c:axId val="2127184232"/>
+        <c:axId val="-2145777608"/>
+        <c:axId val="-2145769880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127176504"/>
+        <c:axId val="-2145777608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,7 +3060,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127184232"/>
+        <c:crossAx val="-2145769880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3070,7 +3070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127184232"/>
+        <c:axId val="-2145769880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -3102,7 +3102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127176504"/>
+        <c:crossAx val="-2145777608"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3719,11 +3719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127244968"/>
-        <c:axId val="2127252696"/>
+        <c:axId val="-2146971288"/>
+        <c:axId val="-2146963560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127244968"/>
+        <c:axId val="-2146971288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3757,7 +3757,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127252696"/>
+        <c:crossAx val="-2146963560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3767,11 +3767,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127252696"/>
+        <c:axId val="-2146963560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
-          <c:min val="0.87"/>
+          <c:min val="0.79"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3799,7 +3799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127244968"/>
+        <c:crossAx val="-2146971288"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4420,11 +4420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127311400"/>
-        <c:axId val="2127319128"/>
+        <c:axId val="-2146902360"/>
+        <c:axId val="-2146894632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127311400"/>
+        <c:axId val="-2146902360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,7 +4458,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127319128"/>
+        <c:crossAx val="-2146894632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4468,7 +4468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127319128"/>
+        <c:axId val="-2146894632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75"/>
@@ -4500,7 +4500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127311400"/>
+        <c:crossAx val="-2146902360"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5117,11 +5117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127379288"/>
-        <c:axId val="2127387016"/>
+        <c:axId val="-2146833928"/>
+        <c:axId val="-2146826200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127379288"/>
+        <c:axId val="-2146833928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5155,7 +5155,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127387016"/>
+        <c:crossAx val="-2146826200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5165,7 +5165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127387016"/>
+        <c:axId val="-2146826200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5197,7 +5197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127379288"/>
+        <c:crossAx val="-2146833928"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5818,11 +5818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127447320"/>
-        <c:axId val="2127455080"/>
+        <c:axId val="-2146765896"/>
+        <c:axId val="-2146758136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127447320"/>
+        <c:axId val="-2146765896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5856,7 +5856,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127455080"/>
+        <c:crossAx val="-2146758136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5866,7 +5866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127455080"/>
+        <c:axId val="-2146758136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.85"/>
@@ -5898,7 +5898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127447320"/>
+        <c:crossAx val="-2146765896"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6515,11 +6515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127515192"/>
-        <c:axId val="2127522952"/>
+        <c:axId val="-2146698024"/>
+        <c:axId val="-2146690264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127515192"/>
+        <c:axId val="-2146698024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6553,7 +6553,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127522952"/>
+        <c:crossAx val="-2146690264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6563,7 +6563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127522952"/>
+        <c:axId val="-2146690264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9996"/>
@@ -6595,7 +6595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127515192"/>
+        <c:crossAx val="-2146698024"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7216,11 +7216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126819960"/>
-        <c:axId val="2126812280"/>
+        <c:axId val="-2146631288"/>
+        <c:axId val="-2146623528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126819960"/>
+        <c:axId val="-2146631288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7254,7 +7254,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126812280"/>
+        <c:crossAx val="-2146623528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7264,7 +7264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126812280"/>
+        <c:axId val="-2146623528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -7296,7 +7296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126819960"/>
+        <c:crossAx val="-2146631288"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7968,2135 +7968,2135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>0.2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.78273809523809501</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.80572289156626498</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.99861256135469401</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.99877579751690904</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>0.1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.84375</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.82379518072289104</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>0.1</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.88186333541211104</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.88251226752904899</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
         <v>0.2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.84375</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.82379518072289104</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>0.2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.88186333541211104</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.88251226752904899</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>0.4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.58957999999999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.51204819277108404</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>0.4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.79192426344536904</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.79259459514603703</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>0.4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.78614457831325302</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.79919678714859399</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.99890841143756004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.99904104464923305</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
         <v>0.1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.83734939759036098</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.81726907630522005</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>0.1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.88204689020037497</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.88260618220151599</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
         <v>0.2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.843373493975903</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.81726907630522005</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>0.2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.88204689020037497</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.88260618220151599</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
         <v>0.4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.58433734939758997</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.47188755020080297</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>0.4</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.79299545036696195</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.792103920835175</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>0.6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.80718699186991805</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.82831325301204795</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.6</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.99907504497699595</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0.99908184813768197</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>0.1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.84331707317073101</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.80421686746987897</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
         <v>0.1</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>0.88220413486118399</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>0.88264999030839697</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
         <v>0.2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.84331707317073101</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.80421686746987897</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>0.2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.88220413486118399</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0.88264999030839697</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>0.4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.50401626016260104</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.53012048192771</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
         <v>0.4</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>0.79321109419542002</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>0.79133468675718899</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>0.8</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0.81330067138450302</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.77710843373493899</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.8</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>0.99913795174578601</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>0.99926548600342702</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
         <v>0.1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>0.84336780983487503</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.76506024096385505</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
         <v>0.1</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>0.88255248596134495</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>0.88170244021872102</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
         <v>0.2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>0.84336780983487503</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.76506024096385505</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
         <v>0.2</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.88255248596134495</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>0.88170244021872102</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
         <v>0.4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>0.51506078751587703</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.51204819277108404</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
         <v>0.4</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>0.79280777379621603</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>0.79107157430833197</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>0.2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.18</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.84375</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.82379518072289104</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>0.18</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>0.894574806309402</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>0.89642226824316695</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
         <v>0.36</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>0.75624999999999998</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0.82379518072289104</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
         <v>0.36</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>0.87965961357077904</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>0.88251226752904899</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
         <v>0.54</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>0.52410714285714199</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.51204819277108404</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
         <v>0.54</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>0.79192426344536904</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>0.79259459514603703</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
         <v>0.72</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.52410714285714199</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0.51204819277108404</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
         <v>0.72</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>0.79192426344536904</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>0.79259459514603703</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>0.4</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.18</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>0.843373493975903</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0.81726907630522005</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.4</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>0.18</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>0.89623760146262199</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>0.89609956813003699</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
         <v>0.36</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.843373493975903</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.81726907630522005</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
         <v>0.36</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.87703791280708399</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>0.87619274322440199</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
         <v>0.54</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>0.50602409638554202</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0.47188755020080297</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
         <v>0.54</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>0.79299545036696195</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>0.792103920835175</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
         <v>0.72</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>0.50602409638554202</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>0.47188755020080297</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
         <v>0.72</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>0.79299545036696195</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>0.792103920835175</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>0.6</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.18</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>0.84331707317073101</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>0.80421686746987897</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.6</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>0.18</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.89639133392294201</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>0.89579996531426298</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1">
         <v>0.36</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>0.84331707317073101</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>0.80421686746987897</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
         <v>0.36</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>0.87586547340097698</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>0.87616171714801605</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1">
         <v>0.54</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>0.50401626016260104</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0.53012048192771</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
         <v>0.54</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>0.79321109419542002</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>0.79133468675718899</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1">
         <v>0.72</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>0.50401626016260104</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>0.53012048192771</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1">
         <v>0.72</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>0.79321109419542002</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>0.79133468675718899</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>0.8</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>0.18</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>0.84336780983487503</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>0.76506024096385505</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0.8</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>0.18</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>0.89636053157413897</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>0.89533175548845101</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1">
         <v>0.36</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>0.84336780983487503</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>0.76506024096385505</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1">
         <v>0.36</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>0.87618660005567195</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>0.87517342691585698</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1">
         <v>0.54</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>0.51506078751587703</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>0.51204819277108404</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
         <v>0.54</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>0.79280777379621603</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <v>0.79107157430833197</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1">
         <v>0.72</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>0.51506078751587703</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>0.51204819277108404</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
         <v>0.72</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>0.79280777379621603</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>0.79107157430833197</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="F39" s="1" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>0.2</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>1</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>0.43958333333333299</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>0.41415662650602397</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>0.2</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>0.98518699294267698</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>0.982810156799934</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>0.45148809523809502</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>0.421686746987951</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1">
         <v>5</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>0.98728857905578304</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>0.98726829417585604</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1">
         <v>10</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>0.48809523809523803</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>0.47590361445783103</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1">
         <v>10</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>0.99045117978993003</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>0.99004825398120799</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1">
         <v>15</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>0.50624999999999998</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>0.483433734939759</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1">
         <v>15</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>0.99075723728107301</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>0.99108372524815602</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>0.4</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>1</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>0.36144578313253001</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>0.369477911646586</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>0.4</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>1</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>0.98371793751949499</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>0.98506478049444002</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1">
         <v>5</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>0.50301204819277101</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>0.41365461847389501</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1">
         <v>5</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>0.99008384289292595</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>0.99074370047947702</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1">
         <v>10</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>0.50301204819277101</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>0.47188755020080297</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1">
         <v>10</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>0.99373608797797397</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="1">
         <v>0.995817322406229</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1">
         <v>15</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>0.50301204819277101</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>0.47188755020080297</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1">
         <v>15</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>0.99615391234282702</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>0.996946305301458</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>0.6</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>1</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>0.385398373983739</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>0.38855421686746899</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>0.6</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>0.98526191599545798</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>0.98594207481917495</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1">
         <v>5</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>0.37123577235772298</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>0.469879518072289</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1">
         <v>5</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>0.99089326287021096</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>0.99548065249992301</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1">
         <v>10</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>0.49398373983739802</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>0.469879518072289</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1">
         <v>10</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>0.99662663131343798</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>0.99661303979678195</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
         <v>15</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>0.51014634146341398</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>0.63253012048192703</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1">
         <v>15</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>0.99685787719235996</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>0.99707211572794097</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>0.8</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>1</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>0.40043549265106099</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>0.42771084337349302</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>0.8</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>0.98605931777669797</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>0.98683995756141296</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1">
         <v>5</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>0.38687171112320801</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>0.41566265060240898</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1">
         <v>5</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>0.99433291380685795</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>0.996531461682853</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1">
         <v>10</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>0.55562511340954401</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>0.60240963855421603</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1">
         <v>10</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>0.99674054345525998</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>0.99706194401371095</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1">
         <v>15</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>0.692741789148974</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>0.70481927710843295</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1">
         <v>15</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="1">
         <v>0.99702109043010301</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="1">
         <v>0.99755162001142506</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="F58" s="1" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>0.2</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>0.66279761904761902</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>0.75451807228915602</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>0.2</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="1">
         <v>1</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="1">
         <v>0.99951030901383497</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="1">
         <v>0.99944400803892897</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1">
         <v>2</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>0.73452380952380902</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>0.76054216867469804</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2">
+      <c r="F61" s="1"/>
+      <c r="G61" s="1">
         <v>2</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="1">
         <v>0.99932667218768401</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <v>0.99923997429174705</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1">
         <v>3</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>0.74732142857142803</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>0.82379518072289104</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2">
+      <c r="F62" s="1"/>
+      <c r="G62" s="1">
         <v>3</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="1">
         <v>0.99940828485424205</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="1">
         <v>0.99930118441590199</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1">
         <v>4</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>0.72916666666666596</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>0.78915662650602403</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1">
         <v>4</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>0.99902061303179202</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="1">
         <v>0.99911755404343805</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>0.4</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>0.75602409638554202</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>0.708835341365461</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>0.4</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="1">
         <v>1</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="1">
         <v>0.99945930609410005</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="1">
         <v>0.99942870745060697</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1">
         <v>2</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>0.73795180722891496</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>0.72489959839357399</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1">
         <v>2</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>0.99939809409644598</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="1">
         <v>0.99936749753459997</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1">
         <v>3</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>0.80421686746987897</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>0.78714859437750995</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2">
+      <c r="F66" s="1"/>
+      <c r="G66" s="1">
         <v>3</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>0.99944910118022801</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="1">
         <v>0.99941510524705002</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1">
         <v>4</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>0.80722891566264998</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>0.82128514056224899</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1">
         <v>4</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <v>0.99931647976486804</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="1">
         <v>0.99931988982215103</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>0.6</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>0.76305691056910496</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>0.76807228915662595</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>0.6</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="1">
         <v>1</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="1">
         <v>0.99943550295521599</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="1">
         <v>0.99951031900676302</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1">
         <v>2</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>0.74079674796747896</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>0.77409638554216798</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2">
+      <c r="F69" s="1"/>
+      <c r="G69" s="1">
         <v>2</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="1">
         <v>0.99946950878791296</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="1">
         <v>0.99938789875845402</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1">
         <v>3</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>0.81731707317073099</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>0.813253012048192</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1">
         <v>3</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="1">
         <v>0.99949671375009796</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="1">
         <v>0.99946951225732705</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1">
         <v>4</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>0.81131707317073098</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>0.80722891566264998</v>
       </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1">
         <v>4</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>0.99944910580634405</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>0.99933689032165895</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>0.8</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>0.76364543639992699</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>0.77710843373493899</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>0.8</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>1</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>0.999489912613719</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="1">
         <v>0.99951032400228501</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1">
         <v>2</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>0.77260932680094296</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>0.75301204819277101</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1">
         <v>2</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="1">
         <v>0.99947970998966795</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="1">
         <v>0.99955113033542797</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1">
         <v>3</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>0.81193068408637203</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>0.75301204819277101</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2">
+      <c r="F74" s="1"/>
+      <c r="G74" s="1">
         <v>3</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="1">
         <v>0.99954092094644498</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="1">
         <v>0.99959193666857005</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1">
         <v>4</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>0.81036109598983797</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>0.73493975903614395</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1">
         <v>4</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <v>0.99943890334429697</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="1">
         <v>0.99944911450257001</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="G77" s="1" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="G77" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>0.2</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>0.52351190476190401</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>0.53313253012048101</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="1">
         <v>0.2</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="1">
         <v>1</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="1">
         <v>0.45938989825114901</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="1">
         <v>0.49355763443273498</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>0.52351190476190401</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>0.53313253012048101</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="1">
         <v>0.445960964538549</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="1">
         <v>0.55493098558501497</v>
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1">
         <v>100</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>0.753571428571428</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>0.81777108433734902</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2">
+      <c r="G81" s="1"/>
+      <c r="H81" s="1">
         <v>100</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="1">
         <v>0.81822506417044605</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="1">
         <v>0.84184324087203999</v>
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2" t="s">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>0.48005952380952299</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>0.73343373493975905</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2" t="s">
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="1">
         <v>0.67067132570613197</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="1">
         <v>0.18086571518929201</v>
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>0.4</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>0.64759036144578297</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>0.63855421686746905</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="1">
         <v>0.4</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="1">
         <v>1</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="1">
         <v>0.43002235102617598</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="1">
         <v>0.48693848403441298</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2" t="s">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>0.60843373493975905</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>0.60441767068273</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2" t="s">
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="1">
         <v>0.38307852739176002</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="1">
         <v>0.359764681878464</v>
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1">
         <v>100</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>0.79819277108433695</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>0.59036144578313199</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2">
+      <c r="G85" s="1"/>
+      <c r="H85" s="1">
         <v>100</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="1">
         <v>0.52866364384728004</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="1">
         <v>0.50434930458734295</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2" t="s">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <v>0.69277108433734902</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <v>0.74297188755020005</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="1">
         <v>0.53029288299314803</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="1">
         <v>0.89931648927126195</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>0.6</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>1</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <v>0.531983739837398</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>0.469879518072289</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="1">
         <v>0.6</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="1">
         <v>1</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="1">
         <v>0.74262640619903697</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="1">
         <v>0.81096273323607704</v>
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2" t="s">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="1">
         <v>0.531983739837398</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <v>0.469879518072289</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2" t="s">
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="1">
         <v>0.72516533305119901</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="1">
         <v>0.68763453475204706</v>
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1">
         <v>100</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <v>0.63195121951219502</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1">
         <v>0.43975903614457801</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2">
+      <c r="G89" s="1"/>
+      <c r="H89" s="1">
         <v>100</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="1">
         <v>0.33872362199169798</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="1">
         <v>0.60560276669761104</v>
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2" t="s">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>0.66473170731707298</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>0.73795180722891496</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2" t="s">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="1">
         <v>0.531902780699408</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="1">
         <v>0.77025800067331096</v>
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>0.8</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>1</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <v>0.577309018326982</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>0.48795180722891501</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="1">
         <v>0.8</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="1">
         <v>1</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="1">
         <v>0.43272628746974701</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="1">
         <v>0.67995592916020497</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>0.621928869533659</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>0.71084337349397497</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2" t="s">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="1">
         <v>0.67497454219164299</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="1">
         <v>0.57428792948665597</v>
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1">
         <v>100</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>0.75307566684812199</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>0.40361445783132499</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2">
+      <c r="G93" s="1"/>
+      <c r="H93" s="1">
         <v>100</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="1">
         <v>0.67688925843791703</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="1">
         <v>0.53448135150575304</v>
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2" t="s">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>0.64184358555615995</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>0.52409638554216798</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2" t="s">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="1">
         <v>0.59867321063393297</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="1">
         <v>0.87423488125356996</v>
       </c>
     </row>

--- a/Assignment1/Analysis/analysis.xlsx
+++ b/Assignment1/Analysis/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28760" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="10260" yWindow="0" windowWidth="18060" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
   <si>
     <t>Impurity</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Training Portion</t>
+  </si>
+  <si>
+    <t>Train Score</t>
   </si>
 </sst>
 </file>
@@ -120,8 +123,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -227,7 +304,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="171">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -276,6 +353,43 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -324,6 +438,43 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,7 +530,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Impurity 0: X-Val</c:v>
+            <c:v>Impurity 0: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -422,7 +573,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$3,Sheet1!$C$7,Sheet1!$C$11,Sheet1!$C$15)</c:f>
+              <c:f>(Sheet1!$D$3,Sheet1!$D$7,Sheet1!$D$11,Sheet1!$D$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -488,7 +639,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$3,Sheet1!$D$7,Sheet1!$D$11,Sheet1!$D$15)</c:f>
+              <c:f>(Sheet1!$E$3,Sheet1!$E$7,Sheet1!$E$11,Sheet1!$E$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -513,7 +664,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Impurity 0.1: X-Val</c:v>
+            <c:v>Impurity 0.1: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -556,7 +707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$4,Sheet1!$C$8,Sheet1!$C$12,Sheet1!$C$16)</c:f>
+              <c:f>(Sheet1!$D$4,Sheet1!$D$8,Sheet1!$D$12,Sheet1!$D$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -622,7 +773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$4,Sheet1!$D$8,Sheet1!$D$12,Sheet1!$D$16)</c:f>
+              <c:f>(Sheet1!$E$4,Sheet1!$E$8,Sheet1!$E$12,Sheet1!$E$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -647,7 +798,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Impurity 0.2: X-Val</c:v>
+            <c:v>Impurity 0.2: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -690,7 +841,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$5,Sheet1!$C$9,Sheet1!$C$13,Sheet1!$C$17)</c:f>
+              <c:f>(Sheet1!$D$5,Sheet1!$D$9,Sheet1!$D$13,Sheet1!$D$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -759,7 +910,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$5,Sheet1!$D$9,Sheet1!$D$13,Sheet1!$D$17)</c:f>
+              <c:f>(Sheet1!$E$5,Sheet1!$E$9,Sheet1!$E$13,Sheet1!$E$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -784,7 +935,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Impurity 0.4: X-Val</c:v>
+            <c:v>Impurity 0.4: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -827,7 +978,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$6,Sheet1!$C$10,Sheet1!$C$14,Sheet1!$C$18)</c:f>
+              <c:f>(Sheet1!$D$6,Sheet1!$D$10,Sheet1!$D$14,Sheet1!$D$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -896,7 +1047,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$6,Sheet1!$D$10,Sheet1!$D$14,Sheet1!$D$18)</c:f>
+              <c:f>(Sheet1!$E$6,Sheet1!$E$10,Sheet1!$E$14,Sheet1!$E$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -927,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145965400"/>
-        <c:axId val="-2145956520"/>
+        <c:axId val="2132358456"/>
+        <c:axId val="2132364408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145965400"/>
+        <c:axId val="2132358456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1116,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145956520"/>
+        <c:crossAx val="2132364408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -975,7 +1126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145956520"/>
+        <c:axId val="2132364408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -1007,7 +1158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145965400"/>
+        <c:crossAx val="2132358456"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,7 +1227,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Iterations 1 Linear: X-Val</c:v>
+            <c:v>Iterations 1 Linear: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -1119,7 +1270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$J$79,Sheet1!$J$83,Sheet1!$J$87,Sheet1!$J$91)</c:f>
+              <c:f>(Sheet1!$K$79,Sheet1!$K$83,Sheet1!$K$87,Sheet1!$K$91)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1185,7 +1336,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$K$79,Sheet1!$K$83,Sheet1!$K$87,Sheet1!$K$91)</c:f>
+              <c:f>(Sheet1!$L$79,Sheet1!$L$83,Sheet1!$L$87,Sheet1!$L$91)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1210,7 +1361,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Iterations 1 Polynomial: X-Val</c:v>
+            <c:v>Iterations 1 Polynomial: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -1253,7 +1404,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$J$80,Sheet1!$J$84,Sheet1!$J$88,Sheet1!$J$92)</c:f>
+              <c:f>(Sheet1!$K$80,Sheet1!$K$84,Sheet1!$K$88,Sheet1!$K$92)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1319,7 +1470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$K$80,Sheet1!$K$84,Sheet1!$K$88,Sheet1!$K$92)</c:f>
+              <c:f>(Sheet1!$L$80,Sheet1!$L$84,Sheet1!$L$88,Sheet1!$L$92)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1344,7 +1495,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Iterations 100 Linear: X-Val</c:v>
+            <c:v>Iterations 100 Linear: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -1387,7 +1538,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$J$81,Sheet1!$J$85,Sheet1!$J$89,Sheet1!$J$93)</c:f>
+              <c:f>(Sheet1!$K$81,Sheet1!$K$85,Sheet1!$K$89,Sheet1!$K$93)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1456,7 +1607,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$K$81,Sheet1!$K$85,Sheet1!$K$89,Sheet1!$K$93)</c:f>
+              <c:f>(Sheet1!$L$81,Sheet1!$L$85,Sheet1!$L$89,Sheet1!$L$93)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1481,7 +1632,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Iterations 100 Polynomial: X-Val</c:v>
+            <c:v>Iterations 100 Polynomial: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -1524,7 +1675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$J$82,Sheet1!$J$86,Sheet1!$J$90,Sheet1!$J$94)</c:f>
+              <c:f>(Sheet1!$K$82,Sheet1!$K$86,Sheet1!$K$90,Sheet1!$K$94)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1593,7 +1744,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$K$82,Sheet1!$K$86,Sheet1!$K$90,Sheet1!$K$94)</c:f>
+              <c:f>(Sheet1!$L$82,Sheet1!$L$86,Sheet1!$L$90,Sheet1!$L$94)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1624,11 +1775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146562296"/>
-        <c:axId val="-2146554600"/>
+        <c:axId val="2133122216"/>
+        <c:axId val="2133129912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146562296"/>
+        <c:axId val="2133122216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1813,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146554600"/>
+        <c:crossAx val="2133129912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1672,7 +1823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146554600"/>
+        <c:axId val="2133129912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1704,7 +1855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146562296"/>
+        <c:crossAx val="2133122216"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,7 +1924,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Impurity 0: X-Val</c:v>
+            <c:v>Impurity 0: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -1816,7 +1967,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$3,Sheet1!$H$7,Sheet1!$H$11,Sheet1!$H$15)</c:f>
+              <c:f>(Sheet1!$I$3,Sheet1!$I$7,Sheet1!$I$11,Sheet1!$I$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1882,7 +2033,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$3,Sheet1!$I$7,Sheet1!$I$11,Sheet1!$I$15)</c:f>
+              <c:f>(Sheet1!$J$3,Sheet1!$J$7,Sheet1!$J$11,Sheet1!$J$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1907,7 +2058,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Impurity 0.1: X-Val</c:v>
+            <c:v>Impurity 0.1: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -1950,7 +2101,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$4,Sheet1!$H$8,Sheet1!$H$12,Sheet1!$H$16)</c:f>
+              <c:f>(Sheet1!$I$4,Sheet1!$I$8,Sheet1!$I$12,Sheet1!$I$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2016,7 +2167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$4,Sheet1!$I$8,Sheet1!$I$12,Sheet1!$I$16)</c:f>
+              <c:f>(Sheet1!$J$4,Sheet1!$J$8,Sheet1!$J$12,Sheet1!$J$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2041,7 +2192,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Impurity 0.2: X-Val</c:v>
+            <c:v>Impurity 0.2: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -2084,7 +2235,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$5,Sheet1!$H$9,Sheet1!$H$13,Sheet1!$H$17)</c:f>
+              <c:f>(Sheet1!$I$5,Sheet1!$I$9,Sheet1!$I$13,Sheet1!$I$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2153,7 +2304,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$5,Sheet1!$I$9,Sheet1!$I$13,Sheet1!$I$17)</c:f>
+              <c:f>(Sheet1!$J$5,Sheet1!$J$9,Sheet1!$J$13,Sheet1!$J$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2178,7 +2329,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Impurity 0.4: X-Val</c:v>
+            <c:v>Impurity 0.4: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -2221,7 +2372,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$6,Sheet1!$H$10,Sheet1!$H$14,Sheet1!$H$18)</c:f>
+              <c:f>(Sheet1!$I$6,Sheet1!$I$10,Sheet1!$I$14,Sheet1!$I$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2290,7 +2441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$6,Sheet1!$I$10,Sheet1!$I$14,Sheet1!$I$18)</c:f>
+              <c:f>(Sheet1!$J$6,Sheet1!$J$10,Sheet1!$J$14,Sheet1!$J$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2321,11 +2472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145844744"/>
-        <c:axId val="-2145837272"/>
+        <c:axId val="2132375288"/>
+        <c:axId val="2132382696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145844744"/>
+        <c:axId val="2132375288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2510,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145837272"/>
+        <c:crossAx val="2132382696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2369,7 +2520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145837272"/>
+        <c:axId val="2132382696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2401,7 +2552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145844744"/>
+        <c:crossAx val="2132375288"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2474,7 +2625,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Impurity 0.18: X-Val</c:v>
+            <c:v>Impurity 0.18: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -2517,7 +2668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$22,Sheet1!$C$26,Sheet1!$C$30,Sheet1!$C$34)</c:f>
+              <c:f>(Sheet1!$D$22,Sheet1!$D$26,Sheet1!$D$30,Sheet1!$D$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2583,7 +2734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$22,Sheet1!$D$26,Sheet1!$D$30,Sheet1!$D$34)</c:f>
+              <c:f>(Sheet1!$E$22,Sheet1!$E$26,Sheet1!$E$30,Sheet1!$E$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2608,7 +2759,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Impurity 0.36: X-Val</c:v>
+            <c:v>Impurity 0.36: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -2651,7 +2802,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$23,Sheet1!$C$27,Sheet1!$C$31,Sheet1!$C$35)</c:f>
+              <c:f>(Sheet1!$D$23,Sheet1!$D$27,Sheet1!$D$31,Sheet1!$D$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2717,7 +2868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$23,Sheet1!$D$27,Sheet1!$D$31,Sheet1!$D$35)</c:f>
+              <c:f>(Sheet1!$E$23,Sheet1!$E$27,Sheet1!$E$31,Sheet1!$E$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2742,7 +2893,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Impurity 0.54: X-Val</c:v>
+            <c:v>Impurity 0.54: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -2785,7 +2936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$24,Sheet1!$C$28,Sheet1!$C$32,Sheet1!$C$36)</c:f>
+              <c:f>(Sheet1!$D$24,Sheet1!$D$28,Sheet1!$D$32,Sheet1!$D$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2854,7 +3005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$24,Sheet1!$D$28,Sheet1!$D$32,Sheet1!$D$36)</c:f>
+              <c:f>(Sheet1!$E$24,Sheet1!$E$28,Sheet1!$E$32,Sheet1!$E$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2879,7 +3030,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Impurity 0.72: X-Val</c:v>
+            <c:v>Impurity 0.72: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -2922,7 +3073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$25,Sheet1!$C$29,Sheet1!$C$33,Sheet1!$C$37)</c:f>
+              <c:f>(Sheet1!$D$25,Sheet1!$D$29,Sheet1!$D$33,Sheet1!$D$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2991,7 +3142,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$25,Sheet1!$D$29,Sheet1!$D$33,Sheet1!$D$37)</c:f>
+              <c:f>(Sheet1!$E$25,Sheet1!$E$29,Sheet1!$E$33,Sheet1!$E$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3022,11 +3173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145777608"/>
-        <c:axId val="-2145769880"/>
+        <c:axId val="2131586968"/>
+        <c:axId val="2131594696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145777608"/>
+        <c:axId val="2131586968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,7 +3211,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145769880"/>
+        <c:crossAx val="2131594696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3070,7 +3221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145769880"/>
+        <c:axId val="2131594696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -3102,7 +3253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145777608"/>
+        <c:crossAx val="2131586968"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3171,7 +3322,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Impurity 0.18: X-Val</c:v>
+            <c:v>Impurity 0.18: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -3214,7 +3365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$22,Sheet1!$H$26,Sheet1!$H$30,Sheet1!$H$34)</c:f>
+              <c:f>(Sheet1!$I$22,Sheet1!$I$26,Sheet1!$I$30,Sheet1!$I$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3280,7 +3431,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$22,Sheet1!$I$26,Sheet1!$I$30,Sheet1!$I$34)</c:f>
+              <c:f>(Sheet1!$J$22,Sheet1!$J$26,Sheet1!$J$30,Sheet1!$J$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3305,7 +3456,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Impurity 0.36: X-Val</c:v>
+            <c:v>Impurity 0.36: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -3348,7 +3499,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$23,Sheet1!$H$27,Sheet1!$H$31,Sheet1!$H$35)</c:f>
+              <c:f>(Sheet1!$I$23,Sheet1!$I$27,Sheet1!$I$31,Sheet1!$I$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3414,7 +3565,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$23,Sheet1!$I$27,Sheet1!$I$31,Sheet1!$I$35)</c:f>
+              <c:f>(Sheet1!$J$23,Sheet1!$J$27,Sheet1!$J$31,Sheet1!$J$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3439,7 +3590,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Impurity 0.54: X-Val</c:v>
+            <c:v>Impurity 0.54: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -3482,7 +3633,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$24,Sheet1!$H$28,Sheet1!$H$32,Sheet1!$H$36)</c:f>
+              <c:f>(Sheet1!$I$24,Sheet1!$I$28,Sheet1!$I$32,Sheet1!$I$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3551,7 +3702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$24,Sheet1!$I$28,Sheet1!$I$32,Sheet1!$I$36)</c:f>
+              <c:f>(Sheet1!$J$24,Sheet1!$J$28,Sheet1!$J$32,Sheet1!$J$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3576,7 +3727,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Impurity 0.72: X-Val</c:v>
+            <c:v>Impurity 0.72: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -3619,7 +3770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$25,Sheet1!$H$29,Sheet1!$H$33,Sheet1!$H$37)</c:f>
+              <c:f>(Sheet1!$I$25,Sheet1!$I$29,Sheet1!$I$33,Sheet1!$I$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3688,7 +3839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$25,Sheet1!$I$29,Sheet1!$I$33,Sheet1!$I$37)</c:f>
+              <c:f>(Sheet1!$J$25,Sheet1!$J$29,Sheet1!$J$33,Sheet1!$J$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3719,11 +3870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146971288"/>
-        <c:axId val="-2146963560"/>
+        <c:axId val="2131673992"/>
+        <c:axId val="2131681720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146971288"/>
+        <c:axId val="2131673992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3757,7 +3908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146963560"/>
+        <c:crossAx val="2131681720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3767,7 +3918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146963560"/>
+        <c:axId val="2131681720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -3799,7 +3950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146971288"/>
+        <c:crossAx val="2131673992"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3872,7 +4023,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Iterations 1: X-Val</c:v>
+            <c:v>Iterations 1: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -3915,7 +4066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$41,Sheet1!$C$45,Sheet1!$C$49,Sheet1!$C$53)</c:f>
+              <c:f>(Sheet1!$D$41,Sheet1!$D$45,Sheet1!$D$49,Sheet1!$D$53)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3981,7 +4132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$41,Sheet1!$D$45,Sheet1!$D$49,Sheet1!$D$53)</c:f>
+              <c:f>(Sheet1!$E$41,Sheet1!$E$45,Sheet1!$E$49,Sheet1!$E$53)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4006,7 +4157,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Iterations 5: X-Val</c:v>
+            <c:v>Iterations 5: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -4049,7 +4200,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$42,Sheet1!$C$46,Sheet1!$C$50,Sheet1!$C$54)</c:f>
+              <c:f>(Sheet1!$D$42,Sheet1!$D$46,Sheet1!$D$50,Sheet1!$D$54)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4115,7 +4266,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$42,Sheet1!$D$46,Sheet1!$D$50,Sheet1!$D$54)</c:f>
+              <c:f>(Sheet1!$E$42,Sheet1!$E$46,Sheet1!$E$50,Sheet1!$E$54)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4140,7 +4291,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Iterations 10: X-Val</c:v>
+            <c:v>Iterations 10: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -4183,7 +4334,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$43,Sheet1!$C$47,Sheet1!$C$51,Sheet1!$C$55)</c:f>
+              <c:f>(Sheet1!$D$43,Sheet1!$D$47,Sheet1!$D$51,Sheet1!$D$55)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4252,7 +4403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$43,Sheet1!$D$47,Sheet1!$D$51,Sheet1!$D$55)</c:f>
+              <c:f>(Sheet1!$E$43,Sheet1!$E$47,Sheet1!$E$51,Sheet1!$E$55)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4277,7 +4428,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Iterations 15: X-Val</c:v>
+            <c:v>Iterations 15: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -4320,7 +4471,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$44,Sheet1!$C$48,Sheet1!$C$52,Sheet1!$C$56)</c:f>
+              <c:f>(Sheet1!$D$44,Sheet1!$D$48,Sheet1!$D$52,Sheet1!$D$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4389,7 +4540,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$44,Sheet1!$D$48,Sheet1!$D$52,Sheet1!$D$56)</c:f>
+              <c:f>(Sheet1!$E$44,Sheet1!$E$48,Sheet1!$E$52,Sheet1!$E$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4420,11 +4571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146902360"/>
-        <c:axId val="-2146894632"/>
+        <c:axId val="2130864824"/>
+        <c:axId val="2130857208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146902360"/>
+        <c:axId val="2130864824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,7 +4609,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146894632"/>
+        <c:crossAx val="2130857208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4468,7 +4619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146894632"/>
+        <c:axId val="2130857208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75"/>
@@ -4500,7 +4651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146902360"/>
+        <c:crossAx val="2130864824"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4569,7 +4720,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Iterations 1: X-Val</c:v>
+            <c:v>Iterations 1: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -4612,7 +4763,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$41,Sheet1!$H$45,Sheet1!$H$49,Sheet1!$H$53)</c:f>
+              <c:f>(Sheet1!$I$41,Sheet1!$I$45,Sheet1!$I$49,Sheet1!$I$53)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4678,7 +4829,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$41,Sheet1!$I$45,Sheet1!$I$49,Sheet1!$I$53)</c:f>
+              <c:f>(Sheet1!$J$41,Sheet1!$J$45,Sheet1!$J$49,Sheet1!$J$53)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4703,7 +4854,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Iterations 5: X-Val</c:v>
+            <c:v>Iterations 5: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -4746,7 +4897,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$42,Sheet1!$H$46,Sheet1!$H$50,Sheet1!$H$54)</c:f>
+              <c:f>(Sheet1!$I$42,Sheet1!$I$46,Sheet1!$I$50,Sheet1!$I$54)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4812,7 +4963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$42,Sheet1!$I$46,Sheet1!$I$50,Sheet1!$I$54)</c:f>
+              <c:f>(Sheet1!$J$42,Sheet1!$J$46,Sheet1!$J$50,Sheet1!$J$54)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4837,7 +4988,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Iterations 10: X-Val</c:v>
+            <c:v>Iterations 10: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -4880,7 +5031,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$43,Sheet1!$H$47,Sheet1!$H$51,Sheet1!$H$55)</c:f>
+              <c:f>(Sheet1!$I$43,Sheet1!$I$47,Sheet1!$I$51,Sheet1!$I$55)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4949,7 +5100,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$43,Sheet1!$I$47,Sheet1!$I$51,Sheet1!$I$55)</c:f>
+              <c:f>(Sheet1!$J$43,Sheet1!$J$47,Sheet1!$J$51,Sheet1!$J$55)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4974,7 +5125,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Iterations 15: X-Val</c:v>
+            <c:v>Iterations 15: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -5017,7 +5168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$44,Sheet1!$H$48,Sheet1!$H$52,Sheet1!$H$56)</c:f>
+              <c:f>(Sheet1!$I$44,Sheet1!$I$48,Sheet1!$I$52,Sheet1!$I$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5086,7 +5237,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$44,Sheet1!$I$48,Sheet1!$I$52,Sheet1!$I$56)</c:f>
+              <c:f>(Sheet1!$J$44,Sheet1!$J$48,Sheet1!$J$52,Sheet1!$J$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5117,11 +5268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146833928"/>
-        <c:axId val="-2146826200"/>
+        <c:axId val="2130796616"/>
+        <c:axId val="2130789000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146833928"/>
+        <c:axId val="2130796616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5155,7 +5306,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146826200"/>
+        <c:crossAx val="2130789000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5165,7 +5316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146826200"/>
+        <c:axId val="2130789000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5197,7 +5348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146833928"/>
+        <c:crossAx val="2130796616"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5270,7 +5421,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Neighbours 1: X-Val</c:v>
+            <c:v>Neighbours 1: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -5313,7 +5464,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$60,Sheet1!$C$64,Sheet1!$C$68,Sheet1!$C$72)</c:f>
+              <c:f>(Sheet1!$D$60,Sheet1!$D$64,Sheet1!$D$68,Sheet1!$D$72)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5379,7 +5530,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$60,Sheet1!$D$64,Sheet1!$D$68,Sheet1!$D$72)</c:f>
+              <c:f>(Sheet1!$E$60,Sheet1!$E$64,Sheet1!$E$68,Sheet1!$E$72)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5404,7 +5555,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Neighbours 2: X-Val</c:v>
+            <c:v>Neighbours 2: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -5447,7 +5598,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$61,Sheet1!$C$65,Sheet1!$C$69,Sheet1!$C$73)</c:f>
+              <c:f>(Sheet1!$D$61,Sheet1!$D$65,Sheet1!$D$69,Sheet1!$D$73)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5513,7 +5664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$61,Sheet1!$D$65,Sheet1!$D$69,Sheet1!$D$73)</c:f>
+              <c:f>(Sheet1!$E$61,Sheet1!$E$65,Sheet1!$E$69,Sheet1!$E$73)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5538,7 +5689,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Neighbours 3: X-Val</c:v>
+            <c:v>Neighbours 3: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -5581,7 +5732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$62,Sheet1!$C$66,Sheet1!$C$70,Sheet1!$C$74)</c:f>
+              <c:f>(Sheet1!$D$62,Sheet1!$D$66,Sheet1!$D$70,Sheet1!$D$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5650,7 +5801,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$62,Sheet1!$D$66,Sheet1!$D$70,Sheet1!$D$74)</c:f>
+              <c:f>(Sheet1!$E$62,Sheet1!$E$66,Sheet1!$E$70,Sheet1!$E$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5675,7 +5826,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Neighbours 4: X-Val</c:v>
+            <c:v>Neighbours 4: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -5718,7 +5869,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$63,Sheet1!$C$67,Sheet1!$C$71,Sheet1!$C$75)</c:f>
+              <c:f>(Sheet1!$D$63,Sheet1!$D$67,Sheet1!$D$71,Sheet1!$D$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5787,7 +5938,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$63,Sheet1!$D$67,Sheet1!$D$71,Sheet1!$D$75)</c:f>
+              <c:f>(Sheet1!$E$63,Sheet1!$E$67,Sheet1!$E$71,Sheet1!$E$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5818,11 +5969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146765896"/>
-        <c:axId val="-2146758136"/>
+        <c:axId val="2130728520"/>
+        <c:axId val="2130720936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146765896"/>
+        <c:axId val="2130728520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5856,7 +6007,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146758136"/>
+        <c:crossAx val="2130720936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5866,7 +6017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146758136"/>
+        <c:axId val="2130720936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.85"/>
@@ -5898,7 +6049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146765896"/>
+        <c:crossAx val="2130728520"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5967,7 +6118,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Neighbours 1: X-Val</c:v>
+            <c:v>Neighbours 1: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -6010,7 +6161,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$60,Sheet1!$H$64,Sheet1!$H$68,Sheet1!$H$72)</c:f>
+              <c:f>(Sheet1!$I$60,Sheet1!$I$64,Sheet1!$I$68,Sheet1!$I$72)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6076,7 +6227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$60,Sheet1!$I$64,Sheet1!$I$68,Sheet1!$I$72)</c:f>
+              <c:f>(Sheet1!$J$60,Sheet1!$J$64,Sheet1!$J$68,Sheet1!$J$72)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6101,7 +6252,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Neighbours 2: X-Val</c:v>
+            <c:v>Neighbours 2: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -6144,7 +6295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$61,Sheet1!$H$65,Sheet1!$H$69,Sheet1!$H$73)</c:f>
+              <c:f>(Sheet1!$I$61,Sheet1!$I$65,Sheet1!$I$69,Sheet1!$I$73)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6210,7 +6361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$61,Sheet1!$I$65,Sheet1!$I$69,Sheet1!$I$73)</c:f>
+              <c:f>(Sheet1!$J$61,Sheet1!$J$65,Sheet1!$J$69,Sheet1!$J$73)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6235,7 +6386,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Neighbours 3: X-Val</c:v>
+            <c:v>Neighbours 3: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -6278,7 +6429,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$62,Sheet1!$H$66,Sheet1!$H$70,Sheet1!$H$74)</c:f>
+              <c:f>(Sheet1!$I$62,Sheet1!$I$66,Sheet1!$I$70,Sheet1!$I$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6347,7 +6498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$62,Sheet1!$I$66,Sheet1!$I$70,Sheet1!$I$74)</c:f>
+              <c:f>(Sheet1!$J$62,Sheet1!$J$66,Sheet1!$J$70,Sheet1!$J$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6372,7 +6523,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Neighbours 4: X-Val</c:v>
+            <c:v>Neighbours 4: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -6415,7 +6566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$63,Sheet1!$H$67,Sheet1!$H$71,Sheet1!$H$75)</c:f>
+              <c:f>(Sheet1!$I$63,Sheet1!$I$67,Sheet1!$I$71,Sheet1!$I$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6484,7 +6635,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$63,Sheet1!$I$67,Sheet1!$I$71,Sheet1!$I$75)</c:f>
+              <c:f>(Sheet1!$J$63,Sheet1!$J$67,Sheet1!$J$71,Sheet1!$J$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6515,11 +6666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146698024"/>
-        <c:axId val="-2146690264"/>
+        <c:axId val="2133009624"/>
+        <c:axId val="2133017384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146698024"/>
+        <c:axId val="2133009624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6553,7 +6704,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146690264"/>
+        <c:crossAx val="2133017384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6563,7 +6714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146690264"/>
+        <c:axId val="2133017384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9996"/>
@@ -6595,7 +6746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146698024"/>
+        <c:crossAx val="2133009624"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6668,7 +6819,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Iterations 1 Linear: X-Val</c:v>
+            <c:v>Iterations 1 Linear: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -6711,7 +6862,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$79,Sheet1!$D$83,Sheet1!$D$87,Sheet1!$D$91)</c:f>
+              <c:f>(Sheet1!$E$79,Sheet1!$E$83,Sheet1!$E$87,Sheet1!$E$91)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6777,7 +6928,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$79,Sheet1!$E$83,Sheet1!$E$87,Sheet1!$E$91)</c:f>
+              <c:f>(Sheet1!$F$79,Sheet1!$F$83,Sheet1!$F$87,Sheet1!$F$91)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6802,7 +6953,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Iterations 1 Polynomial: X-Val</c:v>
+            <c:v>Iterations 1 Polynomial: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -6845,7 +6996,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$80,Sheet1!$D$84,Sheet1!$D$88,Sheet1!$D$92)</c:f>
+              <c:f>(Sheet1!$E$80,Sheet1!$E$84,Sheet1!$E$88,Sheet1!$E$92)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6911,7 +7062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$80,Sheet1!$E$84,Sheet1!$E$88,Sheet1!$E$92)</c:f>
+              <c:f>(Sheet1!$F$80,Sheet1!$F$84,Sheet1!$F$88,Sheet1!$F$92)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6936,7 +7087,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Iterations 100 Linear: X-Val</c:v>
+            <c:v>Iterations 100 Linear: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -6979,7 +7130,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$81,Sheet1!$D$85,Sheet1!$D$89,Sheet1!$D$93)</c:f>
+              <c:f>(Sheet1!$E$81,Sheet1!$E$85,Sheet1!$E$89,Sheet1!$E$93)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7048,7 +7199,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$81,Sheet1!$E$85,Sheet1!$E$89,Sheet1!$E$93)</c:f>
+              <c:f>(Sheet1!$F$81,Sheet1!$F$85,Sheet1!$F$89,Sheet1!$F$93)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7073,7 +7224,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Iterations 100 Polynomial: X-Val</c:v>
+            <c:v>Iterations 100 Polynomial: Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cmpd="sng">
@@ -7116,7 +7267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$82,Sheet1!$D$86,Sheet1!$D$90,Sheet1!$D$94)</c:f>
+              <c:f>(Sheet1!$E$82,Sheet1!$E$86,Sheet1!$E$90,Sheet1!$E$94)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7185,7 +7336,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$82,Sheet1!$E$86,Sheet1!$E$90,Sheet1!$E$94)</c:f>
+              <c:f>(Sheet1!$F$82,Sheet1!$F$86,Sheet1!$F$90,Sheet1!$F$94)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7216,11 +7367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146631288"/>
-        <c:axId val="-2146623528"/>
+        <c:axId val="2133078072"/>
+        <c:axId val="2133085768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146631288"/>
+        <c:axId val="2133078072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7254,7 +7405,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146623528"/>
+        <c:crossAx val="2133085768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7264,7 +7415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146623528"/>
+        <c:axId val="2133085768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -7296,7 +7447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146631288"/>
+        <c:crossAx val="2133078072"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7325,16 +7476,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7355,16 +7506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7387,16 +7538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7419,16 +7570,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7451,16 +7602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7483,16 +7634,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7586,7 +7737,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -7966,43 +8117,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="13.5" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -8010,9 +8164,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -8022,13 +8179,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>0.2</v>
       </c>
@@ -8036,9 +8196,12 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
+        <v>0.90361445783132499</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.78273809523809501</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.80572289156626498</v>
       </c>
       <c r="F3" s="1">
@@ -8048,21 +8211,27 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
+        <v>0.99997959641712997</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.99861256135469401</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.99877579751690904</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>0.1</v>
       </c>
       <c r="C4" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.84375</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.82379518072289104</v>
       </c>
       <c r="F4" s="1"/>
@@ -8070,21 +8239,27 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1">
+        <v>0.88186325518761099</v>
+      </c>
+      <c r="I4" s="1">
         <v>0.88186333541211104</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.88251226752904899</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>0.2</v>
       </c>
       <c r="C5" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.84375</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.82379518072289104</v>
       </c>
       <c r="F5" s="1"/>
@@ -8092,21 +8267,27 @@
         <v>0.2</v>
       </c>
       <c r="H5" s="1">
+        <v>0.88186325518761099</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.88186333541211104</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.88251226752904899</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>0.4</v>
       </c>
       <c r="C6" s="1">
+        <v>0.52409638554216798</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.58957999999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.51204819277108404</v>
       </c>
       <c r="F6" s="1"/>
@@ -8114,13 +8295,16 @@
         <v>0.4</v>
       </c>
       <c r="H6" s="1">
+        <v>0.791924261900389</v>
+      </c>
+      <c r="I6" s="1">
         <v>0.79192426344536904</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.79259459514603703</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
@@ -8128,9 +8312,12 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
+        <v>0.90361445783132499</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.78614457831325302</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.79919678714859399</v>
       </c>
       <c r="F7" s="1">
@@ -8140,21 +8327,27 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
+        <v>0.99996939462569601</v>
+      </c>
+      <c r="I7" s="1">
         <v>0.99890841143756004</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.99904104464923305</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>0.1</v>
       </c>
       <c r="C8" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.83734939759036098</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.81726907630522005</v>
       </c>
       <c r="F8" s="1"/>
@@ -8162,13 +8355,16 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1">
+        <v>0.88204688743343296</v>
+      </c>
+      <c r="I8" s="1">
         <v>0.88204689020037497</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.88260618220151599</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>0.2</v>
@@ -8177,6 +8373,9 @@
         <v>0.843373493975903</v>
       </c>
       <c r="D9" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.81726907630522005</v>
       </c>
       <c r="F9" s="1"/>
@@ -8184,21 +8383,27 @@
         <v>0.2</v>
       </c>
       <c r="H9" s="1">
+        <v>0.88204688743343296</v>
+      </c>
+      <c r="I9" s="1">
         <v>0.88204689020037497</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.88260618220151599</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>0.4</v>
       </c>
       <c r="C10" s="1">
+        <v>0.50602409638554202</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.58433734939758997</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.47188755020080297</v>
       </c>
       <c r="F10" s="1"/>
@@ -8206,13 +8411,16 @@
         <v>0.4</v>
       </c>
       <c r="H10" s="1">
+        <v>0.79299545000102001</v>
+      </c>
+      <c r="I10" s="1">
         <v>0.79299545036696195</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.792103920835175</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>0.6</v>
       </c>
@@ -8220,9 +8428,12 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
+        <v>0.89759036144578297</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.80718699186991805</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.82831325301204795</v>
       </c>
       <c r="F11" s="1">
@@ -8232,21 +8443,27 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
+        <v>0.99995919311179704</v>
+      </c>
+      <c r="I11" s="1">
         <v>0.99907504497699595</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0.99908184813768197</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>0.1</v>
       </c>
       <c r="C12" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.84331707317073101</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.80421686746987897</v>
       </c>
       <c r="F12" s="1"/>
@@ -8254,21 +8471,27 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1">
+        <v>0.88220411605478999</v>
+      </c>
+      <c r="I12" s="1">
         <v>0.88220413486118399</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>0.88264999030839697</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>0.2</v>
       </c>
       <c r="C13" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.84331707317073101</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>0.80421686746987897</v>
       </c>
       <c r="F13" s="1"/>
@@ -8276,21 +8499,27 @@
         <v>0.2</v>
       </c>
       <c r="H13" s="1">
+        <v>0.88220411605478999</v>
+      </c>
+      <c r="I13" s="1">
         <v>0.88220413486118399</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.88264999030839697</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>0.4</v>
       </c>
       <c r="C14" s="1">
+        <v>0.50401606425702805</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.50401626016260104</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>0.53012048192771</v>
       </c>
       <c r="F14" s="1"/>
@@ -8298,13 +8527,16 @@
         <v>0.4</v>
       </c>
       <c r="H14" s="1">
+        <v>0.79321109403267198</v>
+      </c>
+      <c r="I14" s="1">
         <v>0.79321109419542002</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>0.79133468675718899</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>0.8</v>
       </c>
@@ -8312,9 +8544,12 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
+        <v>0.89307228915662595</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.81330067138450302</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>0.77710843373493899</v>
       </c>
       <c r="F15" s="1">
@@ -8324,21 +8559,27 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
+        <v>0.99995919304241299</v>
+      </c>
+      <c r="I15" s="1">
         <v>0.99913795174578601</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>0.99926548600342702</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>0.1</v>
       </c>
       <c r="C16" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.84336780983487503</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>0.76506024096385505</v>
       </c>
       <c r="F16" s="1"/>
@@ -8346,21 +8587,27 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1">
+        <v>0.88255247519702096</v>
+      </c>
+      <c r="I16" s="1">
         <v>0.88255248596134495</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>0.88170244021872102</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>0.2</v>
       </c>
       <c r="C17" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.84336780983487503</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>0.76506024096385505</v>
       </c>
       <c r="F17" s="1"/>
@@ -8368,21 +8615,27 @@
         <v>0.2</v>
       </c>
       <c r="H17" s="1">
+        <v>0.88255247519702096</v>
+      </c>
+      <c r="I17" s="1">
         <v>0.88255248596134495</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>0.88170244021872102</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>0.4</v>
       </c>
       <c r="C18" s="1">
+        <v>0.51506024096385505</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.51506078751587703</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>0.51204819277108404</v>
       </c>
       <c r="F18" s="1"/>
@@ -8390,27 +8643,32 @@
         <v>0.4</v>
       </c>
       <c r="H18" s="1">
+        <v>0.79280777372542</v>
+      </c>
+      <c r="I18" s="1">
         <v>0.79280777379621603</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>0.79107157430833197</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -8418,9 +8676,12 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -8430,13 +8691,16 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>0.2</v>
       </c>
@@ -8444,9 +8708,12 @@
         <v>0.18</v>
       </c>
       <c r="C22" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D22" s="1">
         <v>0.84375</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>0.82379518072289104</v>
       </c>
       <c r="F22" s="1">
@@ -8456,21 +8723,27 @@
         <v>0.18</v>
       </c>
       <c r="H22" s="1">
+        <v>0.89508477688682098</v>
+      </c>
+      <c r="I22" s="1">
         <v>0.894574806309402</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>0.89642226824316695</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>0.36</v>
       </c>
       <c r="C23" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D23" s="1">
         <v>0.75624999999999998</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>0.82379518072289104</v>
       </c>
       <c r="F23" s="1"/>
@@ -8478,21 +8751,27 @@
         <v>0.36</v>
       </c>
       <c r="H23" s="1">
+        <v>0.88186325518761099</v>
+      </c>
+      <c r="I23" s="1">
         <v>0.87965961357077904</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>0.88251226752904899</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>0.54</v>
       </c>
       <c r="C24" s="1">
+        <v>0.52409638554216798</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.52410714285714199</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>0.51204819277108404</v>
       </c>
       <c r="F24" s="1"/>
@@ -8500,21 +8779,27 @@
         <v>0.54</v>
       </c>
       <c r="H24" s="1">
+        <v>0.791924261900389</v>
+      </c>
+      <c r="I24" s="1">
         <v>0.79192426344536904</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>0.79259459514603703</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>0.72</v>
       </c>
       <c r="C25" s="1">
+        <v>0.52409638554216798</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.52410714285714199</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>0.51204819277108404</v>
       </c>
       <c r="F25" s="1"/>
@@ -8522,13 +8807,16 @@
         <v>0.72</v>
       </c>
       <c r="H25" s="1">
+        <v>0.791924261900389</v>
+      </c>
+      <c r="I25" s="1">
         <v>0.79192426344536904</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>0.79259459514603703</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>0.4</v>
       </c>
@@ -8539,6 +8827,9 @@
         <v>0.843373493975903</v>
       </c>
       <c r="D26" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="E26" s="1">
         <v>0.81726907630522005</v>
       </c>
       <c r="F26" s="1">
@@ -8548,13 +8839,16 @@
         <v>0.18</v>
       </c>
       <c r="H26" s="1">
+        <v>0.896237579318928</v>
+      </c>
+      <c r="I26" s="1">
         <v>0.89623760146262199</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>0.89609956813003699</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>0.36</v>
@@ -8563,6 +8857,9 @@
         <v>0.843373493975903</v>
       </c>
       <c r="D27" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="E27" s="1">
         <v>0.81726907630522005</v>
       </c>
       <c r="F27" s="1"/>
@@ -8570,13 +8867,16 @@
         <v>0.36</v>
       </c>
       <c r="H27" s="1">
+        <v>0.87567076778682296</v>
+      </c>
+      <c r="I27" s="1">
         <v>0.87703791280708399</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>0.87619274322440199</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>0.54</v>
@@ -8585,6 +8885,9 @@
         <v>0.50602409638554202</v>
       </c>
       <c r="D28" s="1">
+        <v>0.50602409638554202</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.47188755020080297</v>
       </c>
       <c r="F28" s="1"/>
@@ -8592,13 +8895,16 @@
         <v>0.54</v>
       </c>
       <c r="H28" s="1">
+        <v>0.79299545000102001</v>
+      </c>
+      <c r="I28" s="1">
         <v>0.79299545036696195</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>0.792103920835175</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>0.72</v>
@@ -8607,6 +8913,9 @@
         <v>0.50602409638554202</v>
       </c>
       <c r="D29" s="1">
+        <v>0.50602409638554202</v>
+      </c>
+      <c r="E29" s="1">
         <v>0.47188755020080297</v>
       </c>
       <c r="F29" s="1"/>
@@ -8614,13 +8923,16 @@
         <v>0.72</v>
       </c>
       <c r="H29" s="1">
+        <v>0.79299545000102001</v>
+      </c>
+      <c r="I29" s="1">
         <v>0.79299545036696195</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>0.792103920835175</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>0.6</v>
       </c>
@@ -8628,9 +8940,12 @@
         <v>0.18</v>
       </c>
       <c r="C30" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D30" s="1">
         <v>0.84331707317073101</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>0.80421686746987897</v>
       </c>
       <c r="F30" s="1">
@@ -8640,21 +8955,27 @@
         <v>0.18</v>
       </c>
       <c r="H30" s="1">
+        <v>0.89639131085327195</v>
+      </c>
+      <c r="I30" s="1">
         <v>0.89639133392294201</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>0.89579996531426298</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>0.36</v>
       </c>
       <c r="C31" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D31" s="1">
         <v>0.84331707317073101</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>0.80421686746987897</v>
       </c>
       <c r="F31" s="1"/>
@@ -8662,21 +8983,27 @@
         <v>0.36</v>
       </c>
       <c r="H31" s="1">
+        <v>0.87586544608729899</v>
+      </c>
+      <c r="I31" s="1">
         <v>0.87586547340097698</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>0.87616171714801605</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>0.54</v>
       </c>
       <c r="C32" s="1">
+        <v>0.50401606425702805</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.50401626016260104</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>0.53012048192771</v>
       </c>
       <c r="F32" s="1"/>
@@ -8684,21 +9011,27 @@
         <v>0.54</v>
       </c>
       <c r="H32" s="1">
+        <v>0.79321109403267198</v>
+      </c>
+      <c r="I32" s="1">
         <v>0.79321109419542002</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>0.79133468675718899</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>0.72</v>
       </c>
       <c r="C33" s="1">
+        <v>0.50401606425702805</v>
+      </c>
+      <c r="D33" s="1">
         <v>0.50401626016260104</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>0.53012048192771</v>
       </c>
       <c r="F33" s="1"/>
@@ -8706,13 +9039,16 @@
         <v>0.72</v>
       </c>
       <c r="H33" s="1">
+        <v>0.79321109403267198</v>
+      </c>
+      <c r="I33" s="1">
         <v>0.79321109419542002</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>0.79133468675718899</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>0.8</v>
       </c>
@@ -8720,9 +9056,12 @@
         <v>0.18</v>
       </c>
       <c r="C34" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D34" s="1">
         <v>0.84336780983487503</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>0.76506024096385505</v>
       </c>
       <c r="F34" s="1">
@@ -8732,21 +9071,27 @@
         <v>0.18</v>
       </c>
       <c r="H34" s="1">
+        <v>0.89639131085327195</v>
+      </c>
+      <c r="I34" s="1">
         <v>0.89636053157413897</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>0.89533175548845101</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>0.36</v>
       </c>
       <c r="C35" s="1">
+        <v>0.843373493975903</v>
+      </c>
+      <c r="D35" s="1">
         <v>0.84336780983487503</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>0.76506024096385505</v>
       </c>
       <c r="F35" s="1"/>
@@ -8754,21 +9099,27 @@
         <v>0.36</v>
       </c>
       <c r="H35" s="1">
+        <v>0.87586544608729899</v>
+      </c>
+      <c r="I35" s="1">
         <v>0.87618660005567195</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>0.87517342691585698</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>0.54</v>
       </c>
       <c r="C36" s="1">
+        <v>0.51506024096385505</v>
+      </c>
+      <c r="D36" s="1">
         <v>0.51506078751587703</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>0.51204819277108404</v>
       </c>
       <c r="F36" s="1"/>
@@ -8776,21 +9127,27 @@
         <v>0.54</v>
       </c>
       <c r="H36" s="1">
+        <v>0.79321109403267198</v>
+      </c>
+      <c r="I36" s="1">
         <v>0.79280777379621603</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>0.79107157430833197</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>0.72</v>
       </c>
       <c r="C37" s="1">
+        <v>0.51506024096385505</v>
+      </c>
+      <c r="D37" s="1">
         <v>0.51506078751587703</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>0.51204819277108404</v>
       </c>
       <c r="F37" s="1"/>
@@ -8798,27 +9155,32 @@
         <v>0.72</v>
       </c>
       <c r="H37" s="1">
+        <v>0.79321109403267198</v>
+      </c>
+      <c r="I37" s="1">
         <v>0.79280777379621603</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>0.79107157430833197</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -8826,9 +9188,12 @@
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -8838,13 +9203,16 @@
         <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>0.2</v>
       </c>
@@ -8852,9 +9220,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
+        <v>0.43975903614457801</v>
+      </c>
+      <c r="D41" s="1">
         <v>0.43958333333333299</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>0.41415662650602397</v>
       </c>
       <c r="F41" s="1">
@@ -8864,21 +9235,27 @@
         <v>1</v>
       </c>
       <c r="H41" s="1">
+        <v>0.98357511579033197</v>
+      </c>
+      <c r="I41" s="1">
         <v>0.98518699294267698</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>0.982810156799934</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>5</v>
       </c>
       <c r="C42" s="1">
+        <v>0.451807228915662</v>
+      </c>
+      <c r="D42" s="1">
         <v>0.45148809523809502</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>0.421686746987951</v>
       </c>
       <c r="F42" s="1"/>
@@ -8886,21 +9263,27 @@
         <v>5</v>
       </c>
       <c r="H42" s="1">
+        <v>0.987798657444247</v>
+      </c>
+      <c r="I42" s="1">
         <v>0.98728857905578304</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>0.98726829417585604</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>10</v>
       </c>
       <c r="C43" s="1">
+        <v>0.48795180722891501</v>
+      </c>
+      <c r="D43" s="1">
         <v>0.48809523809523803</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>0.47590361445783103</v>
       </c>
       <c r="F43" s="1"/>
@@ -8908,21 +9291,27 @@
         <v>10</v>
       </c>
       <c r="H43" s="1">
+        <v>0.99067556262879697</v>
+      </c>
+      <c r="I43" s="1">
         <v>0.99045117978993003</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>0.99004825398120799</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>15</v>
       </c>
       <c r="C44" s="1">
+        <v>0.50602409638554202</v>
+      </c>
+      <c r="D44" s="1">
         <v>0.50624999999999998</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>0.483433734939759</v>
       </c>
       <c r="F44" s="1"/>
@@ -8930,13 +9319,16 @@
         <v>15</v>
       </c>
       <c r="H44" s="1">
+        <v>0.99165493460651599</v>
+      </c>
+      <c r="I44" s="1">
         <v>0.99075723728107301</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>0.99108372524815602</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>0.4</v>
       </c>
@@ -8944,9 +9336,12 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
+        <v>0.34939759036144502</v>
+      </c>
+      <c r="D45" s="1">
         <v>0.36144578313253001</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>0.369477911646586</v>
       </c>
       <c r="F45" s="1">
@@ -8956,21 +9351,27 @@
         <v>1</v>
       </c>
       <c r="H45" s="1">
+        <v>0.98543184183142496</v>
+      </c>
+      <c r="I45" s="1">
         <v>0.98371793751949499</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>0.98506478049444002</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>5</v>
       </c>
       <c r="C46" s="1">
+        <v>0.47891566265060198</v>
+      </c>
+      <c r="D46" s="1">
         <v>0.50301204819277101</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>0.41365461847389501</v>
       </c>
       <c r="F46" s="1"/>
@@ -8978,13 +9379,16 @@
         <v>5</v>
       </c>
       <c r="H46" s="1">
+        <v>0.99109383607761503</v>
+      </c>
+      <c r="I46" s="1">
         <v>0.99008384289292595</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>0.99074370047947702</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>10</v>
@@ -8993,6 +9397,9 @@
         <v>0.50301204819277101</v>
       </c>
       <c r="D47" s="1">
+        <v>0.50301204819277101</v>
+      </c>
+      <c r="E47" s="1">
         <v>0.47188755020080297</v>
       </c>
       <c r="F47" s="1"/>
@@ -9000,13 +9407,16 @@
         <v>10</v>
       </c>
       <c r="H47" s="1">
+        <v>0.99603150313194999</v>
+      </c>
+      <c r="I47" s="1">
         <v>0.99373608797797397</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>0.995817322406229</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>15</v>
@@ -9015,6 +9425,9 @@
         <v>0.50301204819277101</v>
       </c>
       <c r="D48" s="1">
+        <v>0.50301204819277101</v>
+      </c>
+      <c r="E48" s="1">
         <v>0.47188755020080297</v>
       </c>
       <c r="F48" s="1"/>
@@ -9022,13 +9435,16 @@
         <v>15</v>
       </c>
       <c r="H48" s="1">
+        <v>0.99683744465528101</v>
+      </c>
+      <c r="I48" s="1">
         <v>0.99615391234282702</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <v>0.996946305301458</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>0.6</v>
       </c>
@@ -9036,9 +9452,12 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
+        <v>0.339357429718875</v>
+      </c>
+      <c r="D49" s="1">
         <v>0.385398373983739</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>0.38855421686746899</v>
       </c>
       <c r="F49" s="1">
@@ -9048,21 +9467,27 @@
         <v>1</v>
       </c>
       <c r="H49" s="1">
+        <v>0.98604404423466596</v>
+      </c>
+      <c r="I49" s="1">
         <v>0.98526191599545798</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>0.98594207481917495</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>5</v>
       </c>
       <c r="C50" s="1">
+        <v>0.49397590361445698</v>
+      </c>
+      <c r="D50" s="1">
         <v>0.37123577235772298</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>0.469879518072289</v>
       </c>
       <c r="F50" s="1"/>
@@ -9070,21 +9495,27 @@
         <v>5</v>
       </c>
       <c r="H50" s="1">
+        <v>0.99549764000163199</v>
+      </c>
+      <c r="I50" s="1">
         <v>0.99089326287021096</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>0.99548065249992301</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>10</v>
       </c>
       <c r="C51" s="1">
+        <v>0.49799196787148498</v>
+      </c>
+      <c r="D51" s="1">
         <v>0.49398373983739802</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>0.469879518072289</v>
       </c>
       <c r="F51" s="1"/>
@@ -9092,21 +9523,27 @@
         <v>10</v>
       </c>
       <c r="H51" s="1">
+        <v>0.99667423861147697</v>
+      </c>
+      <c r="I51" s="1">
         <v>0.99662663131343798</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>0.99661303979678195</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>15</v>
       </c>
       <c r="C52" s="1">
+        <v>0.67068273092369401</v>
+      </c>
+      <c r="D52" s="1">
         <v>0.51014634146341398</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>0.63253012048192703</v>
       </c>
       <c r="F52" s="1"/>
@@ -9114,13 +9551,16 @@
         <v>15</v>
       </c>
       <c r="H52" s="1">
+        <v>0.99700749486513296</v>
+      </c>
+      <c r="I52" s="1">
         <v>0.99685787719235996</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>0.99707211572794097</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>0.8</v>
       </c>
@@ -9128,9 +9568,12 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
+        <v>0.41415662650602397</v>
+      </c>
+      <c r="D53" s="1">
         <v>0.40043549265106099</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>0.42771084337349302</v>
       </c>
       <c r="F53" s="1">
@@ -9140,21 +9583,27 @@
         <v>1</v>
       </c>
       <c r="H53" s="1">
+        <v>0.98686526052691903</v>
+      </c>
+      <c r="I53" s="1">
         <v>0.98605931777669797</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>0.98683995756141296</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>5</v>
       </c>
       <c r="C54" s="1">
+        <v>0.35391566265060198</v>
+      </c>
+      <c r="D54" s="1">
         <v>0.38687171112320801</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>0.41566265060240898</v>
       </c>
       <c r="F54" s="1"/>
@@ -9162,21 +9611,27 @@
         <v>5</v>
       </c>
       <c r="H54" s="1">
+        <v>0.99636307990512296</v>
+      </c>
+      <c r="I54" s="1">
         <v>0.99433291380685795</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <v>0.996531461682853</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>10</v>
       </c>
       <c r="C55" s="1">
+        <v>0.623493975903614</v>
+      </c>
+      <c r="D55" s="1">
         <v>0.55562511340954401</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>0.60240963855421603</v>
       </c>
       <c r="F55" s="1"/>
@@ -9184,21 +9639,27 @@
         <v>10</v>
       </c>
       <c r="H55" s="1">
+        <v>0.99681705730827097</v>
+      </c>
+      <c r="I55" s="1">
         <v>0.99674054345525998</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>0.99706194401371095</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>15</v>
       </c>
       <c r="C56" s="1">
+        <v>0.67620481927710796</v>
+      </c>
+      <c r="D56" s="1">
         <v>0.692741789148974</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>0.70481927710843295</v>
       </c>
       <c r="F56" s="1"/>
@@ -9206,27 +9667,32 @@
         <v>15</v>
       </c>
       <c r="H56" s="1">
+        <v>0.99719452166594402</v>
+      </c>
+      <c r="I56" s="1">
         <v>0.99702109043010301</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>0.99755162001142506</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -9234,9 +9700,12 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -9246,13 +9715,16 @@
         <v>6</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>0.2</v>
       </c>
@@ -9260,9 +9732,12 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
+        <v>0.86746987951807197</v>
+      </c>
+      <c r="D60" s="1">
         <v>0.66279761904761902</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>0.75451807228915602</v>
       </c>
       <c r="F60" s="1">
@@ -9272,21 +9747,27 @@
         <v>1</v>
       </c>
       <c r="H60" s="1">
+        <v>0.99997959641712997</v>
+      </c>
+      <c r="I60" s="1">
         <v>0.99951030901383497</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <v>0.99944400803892897</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>2</v>
       </c>
       <c r="C61" s="1">
+        <v>0.84939759036144502</v>
+      </c>
+      <c r="D61" s="1">
         <v>0.73452380952380902</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>0.76054216867469804</v>
       </c>
       <c r="F61" s="1"/>
@@ -9294,21 +9775,27 @@
         <v>2</v>
       </c>
       <c r="H61" s="1">
+        <v>0.999653139091224</v>
+      </c>
+      <c r="I61" s="1">
         <v>0.99932667218768401</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <v>0.99923997429174705</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>3</v>
       </c>
       <c r="C62" s="1">
+        <v>0.86144578313252995</v>
+      </c>
+      <c r="D62" s="1">
         <v>0.74732142857142803</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>0.82379518072289104</v>
       </c>
       <c r="F62" s="1"/>
@@ -9316,21 +9803,27 @@
         <v>3</v>
       </c>
       <c r="H62" s="1">
+        <v>0.99967354267409303</v>
+      </c>
+      <c r="I62" s="1">
         <v>0.99940828485424205</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <v>0.99930118441590199</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>4</v>
       </c>
       <c r="C63" s="1">
+        <v>0.81927710843373402</v>
+      </c>
+      <c r="D63" s="1">
         <v>0.72916666666666596</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>0.78915662650602403</v>
       </c>
       <c r="F63" s="1"/>
@@ -9338,13 +9831,16 @@
         <v>4</v>
       </c>
       <c r="H63" s="1">
+        <v>0.99948991042827096</v>
+      </c>
+      <c r="I63" s="1">
         <v>0.99902061303179202</v>
       </c>
-      <c r="I63" s="1">
+      <c r="J63" s="1">
         <v>0.99911755404343805</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>0.4</v>
       </c>
@@ -9352,9 +9848,12 @@
         <v>1</v>
       </c>
       <c r="C64" s="1">
+        <v>0.86746987951807197</v>
+      </c>
+      <c r="D64" s="1">
         <v>0.75602409638554202</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>0.708835341365461</v>
       </c>
       <c r="F64" s="1">
@@ -9364,21 +9863,27 @@
         <v>1</v>
       </c>
       <c r="H64" s="1">
+        <v>0.99995919283426105</v>
+      </c>
+      <c r="I64" s="1">
         <v>0.99945930609410005</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <v>0.99942870745060697</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <v>2</v>
       </c>
       <c r="C65" s="1">
+        <v>0.84939759036144502</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.73795180722891496</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>0.72489959839357399</v>
       </c>
       <c r="F65" s="1"/>
@@ -9386,21 +9891,27 @@
         <v>2</v>
       </c>
       <c r="H65" s="1">
+        <v>0.99960213013405097</v>
+      </c>
+      <c r="I65" s="1">
         <v>0.99939809409644598</v>
       </c>
-      <c r="I65" s="1">
+      <c r="J65" s="1">
         <v>0.99936749753459997</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:12">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>3</v>
       </c>
       <c r="C66" s="1">
+        <v>0.86144578313252995</v>
+      </c>
+      <c r="D66" s="1">
         <v>0.80421686746987897</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>0.78714859437750995</v>
       </c>
       <c r="F66" s="1"/>
@@ -9408,21 +9919,27 @@
         <v>3</v>
       </c>
       <c r="H66" s="1">
+        <v>0.99963273550835496</v>
+      </c>
+      <c r="I66" s="1">
         <v>0.99944910118022801</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="1">
         <v>0.99941510524705002</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:12">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <v>4</v>
       </c>
       <c r="C67" s="1">
+        <v>0.87048192771084298</v>
+      </c>
+      <c r="D67" s="1">
         <v>0.80722891566264998</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>0.82128514056224899</v>
       </c>
       <c r="F67" s="1"/>
@@ -9430,13 +9947,16 @@
         <v>4</v>
       </c>
       <c r="H67" s="1">
+        <v>0.99954091938544398</v>
+      </c>
+      <c r="I67" s="1">
         <v>0.99931647976486804</v>
       </c>
-      <c r="I67" s="1">
+      <c r="J67" s="1">
         <v>0.99931988982215103</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>0.6</v>
       </c>
@@ -9444,9 +9964,12 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
+        <v>0.89357429718875503</v>
+      </c>
+      <c r="D68" s="1">
         <v>0.76305691056910496</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>0.76807228915662595</v>
       </c>
       <c r="F68" s="1">
@@ -9456,21 +9979,27 @@
         <v>1</v>
       </c>
       <c r="H68" s="1">
+        <v>0.99995239196376295</v>
+      </c>
+      <c r="I68" s="1">
         <v>0.99943550295521599</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <v>0.99951031900676302</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <v>2</v>
       </c>
       <c r="C69" s="1">
+        <v>0.85341365461847296</v>
+      </c>
+      <c r="D69" s="1">
         <v>0.74079674796747896</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>0.77409638554216798</v>
       </c>
       <c r="F69" s="1"/>
@@ -9478,21 +10007,27 @@
         <v>2</v>
       </c>
       <c r="H69" s="1">
+        <v>0.99961913571010697</v>
+      </c>
+      <c r="I69" s="1">
         <v>0.99946950878791296</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>0.99938789875845402</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <v>3</v>
       </c>
       <c r="C70" s="1">
+        <v>0.85742971887550201</v>
+      </c>
+      <c r="D70" s="1">
         <v>0.81731707317073099</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>0.813253012048192</v>
       </c>
       <c r="F70" s="1"/>
@@ -9500,21 +10035,27 @@
         <v>3</v>
       </c>
       <c r="H70" s="1">
+        <v>0.99964634030224298</v>
+      </c>
+      <c r="I70" s="1">
         <v>0.99949671375009796</v>
       </c>
-      <c r="I70" s="1">
+      <c r="J70" s="1">
         <v>0.99946951225732705</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <v>4</v>
       </c>
       <c r="C71" s="1">
+        <v>0.85140562248995899</v>
+      </c>
+      <c r="D71" s="1">
         <v>0.81131707317073098</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>0.80722891566264998</v>
       </c>
       <c r="F71" s="1"/>
@@ -9522,13 +10063,16 @@
         <v>4</v>
       </c>
       <c r="H71" s="1">
+        <v>0.99959193111797195</v>
+      </c>
+      <c r="I71" s="1">
         <v>0.99944910580634405</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <v>0.99933689032165895</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>0.8</v>
       </c>
@@ -9536,9 +10080,12 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
+        <v>0.87198795180722799</v>
+      </c>
+      <c r="D72" s="1">
         <v>0.76364543639992699</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>0.77710843373493899</v>
       </c>
       <c r="F72" s="1">
@@ -9548,21 +10095,27 @@
         <v>1</v>
       </c>
       <c r="H72" s="1">
+        <v>0.99994899130301695</v>
+      </c>
+      <c r="I72" s="1">
         <v>0.999489912613719</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J72" s="1">
         <v>0.99951032400228501</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:12">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
         <v>2</v>
       </c>
       <c r="C73" s="1">
+        <v>0.83433734939758997</v>
+      </c>
+      <c r="D73" s="1">
         <v>0.77260932680094296</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>0.75301204819277101</v>
       </c>
       <c r="F73" s="1"/>
@@ -9570,21 +10123,27 @@
         <v>2</v>
       </c>
       <c r="H73" s="1">
+        <v>0.99966844346961103</v>
+      </c>
+      <c r="I73" s="1">
         <v>0.99947970998966795</v>
       </c>
-      <c r="I73" s="1">
+      <c r="J73" s="1">
         <v>0.99955113033542797</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:12">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <v>3</v>
       </c>
       <c r="C74" s="1">
+        <v>0.86144578313252995</v>
+      </c>
+      <c r="D74" s="1">
         <v>0.81193068408637203</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>0.75301204819277101</v>
       </c>
       <c r="F74" s="1"/>
@@ -9592,21 +10151,27 @@
         <v>3</v>
       </c>
       <c r="H74" s="1">
+        <v>0.99970414955749898</v>
+      </c>
+      <c r="I74" s="1">
         <v>0.99954092094644498</v>
       </c>
-      <c r="I74" s="1">
+      <c r="J74" s="1">
         <v>0.99959193666857005</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:12">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
         <v>4</v>
       </c>
       <c r="C75" s="1">
+        <v>0.85692771084337305</v>
+      </c>
+      <c r="D75" s="1">
         <v>0.81036109598983797</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>0.73493975903614395</v>
       </c>
       <c r="F75" s="1"/>
@@ -9614,13 +10179,16 @@
         <v>4</v>
       </c>
       <c r="H75" s="1">
+        <v>0.99961743477262799</v>
+      </c>
+      <c r="I75" s="1">
         <v>0.99943890334429697</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <v>0.99944911450257001</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:12">
       <c r="A77" s="3" t="s">
         <v>3</v>
       </c>
@@ -9628,6 +10196,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
         <v>4</v>
       </c>
@@ -9635,8 +10204,9 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -9647,9 +10217,12 @@
         <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -9662,13 +10235,16 @@
         <v>7</v>
       </c>
       <c r="J78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>0.2</v>
       </c>
@@ -9679,9 +10255,12 @@
         <v>8</v>
       </c>
       <c r="D79" s="1">
+        <v>0.51807228915662595</v>
+      </c>
+      <c r="E79" s="1">
         <v>0.52351190476190401</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>0.53313253012048101</v>
       </c>
       <c r="G79" s="1">
@@ -9694,22 +10273,28 @@
         <v>8</v>
       </c>
       <c r="J79" s="1">
+        <v>0.491971190140988</v>
+      </c>
+      <c r="K79" s="1">
         <v>0.45938989825114901</v>
       </c>
-      <c r="K79" s="1">
+      <c r="L79" s="1">
         <v>0.49355763443273498</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:12">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="1">
+        <v>0.51807228915662595</v>
+      </c>
+      <c r="E80" s="1">
         <v>0.52351190476190401</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>0.53313253012048101</v>
       </c>
       <c r="G80" s="1"/>
@@ -9718,13 +10303,16 @@
         <v>9</v>
       </c>
       <c r="J80" s="1">
+        <v>0.55336557099426598</v>
+      </c>
+      <c r="K80" s="1">
         <v>0.445960964538549</v>
       </c>
-      <c r="K80" s="1">
+      <c r="L80" s="1">
         <v>0.55493098558501497</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <v>100</v>
@@ -9733,9 +10321,12 @@
         <v>8</v>
       </c>
       <c r="D81" s="1">
+        <v>0.84939759036144502</v>
+      </c>
+      <c r="E81" s="1">
         <v>0.753571428571428</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>0.81777108433734902</v>
       </c>
       <c r="G81" s="1"/>
@@ -9746,22 +10337,28 @@
         <v>8</v>
       </c>
       <c r="J81" s="1">
+        <v>0.84177021484972703</v>
+      </c>
+      <c r="K81" s="1">
         <v>0.81822506417044605</v>
       </c>
-      <c r="K81" s="1">
+      <c r="L81" s="1">
         <v>0.84184324087203999</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:12">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="1">
+        <v>0.70481927710843295</v>
+      </c>
+      <c r="E82" s="1">
         <v>0.48005952380952299</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>0.73343373493975905</v>
       </c>
       <c r="G82" s="1"/>
@@ -9770,13 +10367,16 @@
         <v>9</v>
       </c>
       <c r="J82" s="1">
+        <v>0.18122462304380599</v>
+      </c>
+      <c r="K82" s="1">
         <v>0.67067132570613197</v>
       </c>
-      <c r="K82" s="1">
+      <c r="L82" s="1">
         <v>0.18086571518929201</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>0.4</v>
       </c>
@@ -9787,9 +10387,12 @@
         <v>8</v>
       </c>
       <c r="D83" s="1">
+        <v>0.70481927710843295</v>
+      </c>
+      <c r="E83" s="1">
         <v>0.64759036144578297</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>0.63855421686746905</v>
       </c>
       <c r="G83" s="1">
@@ -9802,22 +10405,28 @@
         <v>8</v>
       </c>
       <c r="J83" s="1">
+        <v>0.48853318642753601</v>
+      </c>
+      <c r="K83" s="1">
         <v>0.43002235102617598</v>
       </c>
-      <c r="K83" s="1">
+      <c r="L83" s="1">
         <v>0.48693848403441298</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:12">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="1">
+        <v>0.65963855421686701</v>
+      </c>
+      <c r="E84" s="1">
         <v>0.60843373493975905</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>0.60441767068273</v>
       </c>
       <c r="G84" s="1"/>
@@ -9826,13 +10435,16 @@
         <v>9</v>
       </c>
       <c r="J84" s="1">
+        <v>0.36237783354757003</v>
+      </c>
+      <c r="K84" s="1">
         <v>0.38307852739176002</v>
       </c>
-      <c r="K84" s="1">
+      <c r="L84" s="1">
         <v>0.359764681878464</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:12">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
         <v>100</v>
@@ -9841,9 +10453,12 @@
         <v>8</v>
       </c>
       <c r="D85" s="1">
+        <v>0.62650602409638501</v>
+      </c>
+      <c r="E85" s="1">
         <v>0.79819277108433695</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>0.59036144578313199</v>
       </c>
       <c r="G85" s="1"/>
@@ -9854,22 +10469,28 @@
         <v>8</v>
       </c>
       <c r="J85" s="1">
+        <v>0.50641692681234796</v>
+      </c>
+      <c r="K85" s="1">
         <v>0.52866364384728004</v>
       </c>
-      <c r="K85" s="1">
+      <c r="L85" s="1">
         <v>0.50434930458734295</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="1">
+        <v>0.72891566265060204</v>
+      </c>
+      <c r="E86" s="1">
         <v>0.69277108433734902</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="1">
         <v>0.74297188755020005</v>
       </c>
       <c r="G86" s="1"/>
@@ -9878,13 +10499,16 @@
         <v>9</v>
       </c>
       <c r="J86" s="1">
+        <v>0.89897165942339397</v>
+      </c>
+      <c r="K86" s="1">
         <v>0.53029288299314803</v>
       </c>
-      <c r="K86" s="1">
+      <c r="L86" s="1">
         <v>0.89931648927126195</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>0.6</v>
       </c>
@@ -9895,9 +10519,12 @@
         <v>8</v>
       </c>
       <c r="D87" s="1">
+        <v>0.495983935742971</v>
+      </c>
+      <c r="E87" s="1">
         <v>0.531983739837398</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>0.469879518072289</v>
       </c>
       <c r="G87" s="1">
@@ -9910,22 +10537,28 @@
         <v>8</v>
       </c>
       <c r="J87" s="1">
+        <v>0.81177822816491396</v>
+      </c>
+      <c r="K87" s="1">
         <v>0.74262640619903697</v>
       </c>
-      <c r="K87" s="1">
+      <c r="L87" s="1">
         <v>0.81096273323607704</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="1">
+        <v>0.495983935742971</v>
+      </c>
+      <c r="E88" s="1">
         <v>0.531983739837398</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>0.469879518072289</v>
       </c>
       <c r="G88" s="1"/>
@@ -9934,13 +10567,16 @@
         <v>9</v>
       </c>
       <c r="J88" s="1">
+        <v>0.68993566113960003</v>
+      </c>
+      <c r="K88" s="1">
         <v>0.72516533305119901</v>
       </c>
-      <c r="K88" s="1">
+      <c r="L88" s="1">
         <v>0.68763453475204706</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
         <v>100</v>
@@ -9949,9 +10585,12 @@
         <v>8</v>
       </c>
       <c r="D89" s="1">
+        <v>0.45783132530120402</v>
+      </c>
+      <c r="E89" s="1">
         <v>0.63195121951219502</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>0.43975903614457801</v>
       </c>
       <c r="G89" s="1"/>
@@ -9962,22 +10601,28 @@
         <v>8</v>
       </c>
       <c r="J89" s="1">
+        <v>0.60833548703021001</v>
+      </c>
+      <c r="K89" s="1">
         <v>0.33872362199169798</v>
       </c>
-      <c r="K89" s="1">
+      <c r="L89" s="1">
         <v>0.60560276669761104</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="1">
+        <v>0.70481927710843295</v>
+      </c>
+      <c r="E90" s="1">
         <v>0.66473170731707298</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>0.73795180722891496</v>
       </c>
       <c r="G90" s="1"/>
@@ -9986,13 +10631,16 @@
         <v>9</v>
       </c>
       <c r="J90" s="1">
+        <v>0.77057687337622505</v>
+      </c>
+      <c r="K90" s="1">
         <v>0.531902780699408</v>
       </c>
-      <c r="K90" s="1">
+      <c r="L90" s="1">
         <v>0.77025800067331096</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>0.8</v>
       </c>
@@ -10003,9 +10651,12 @@
         <v>8</v>
       </c>
       <c r="D91" s="1">
+        <v>0.49397590361445698</v>
+      </c>
+      <c r="E91" s="1">
         <v>0.577309018326982</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>0.48795180722891501</v>
       </c>
       <c r="G91" s="1">
@@ -10018,22 +10669,28 @@
         <v>8</v>
       </c>
       <c r="J91" s="1">
+        <v>0.68003774643576698</v>
+      </c>
+      <c r="K91" s="1">
         <v>0.43272628746974701</v>
       </c>
-      <c r="K91" s="1">
+      <c r="L91" s="1">
         <v>0.67995592916020497</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="1">
+        <v>0.76355421686746905</v>
+      </c>
+      <c r="E92" s="1">
         <v>0.621928869533659</v>
       </c>
-      <c r="E92" s="1">
+      <c r="F92" s="1">
         <v>0.71084337349397497</v>
       </c>
       <c r="G92" s="1"/>
@@ -10042,13 +10699,16 @@
         <v>9</v>
       </c>
       <c r="J92" s="1">
+        <v>0.57768369507000905</v>
+      </c>
+      <c r="K92" s="1">
         <v>0.67497454219164299</v>
       </c>
-      <c r="K92" s="1">
+      <c r="L92" s="1">
         <v>0.57428792948665597</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:12">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
         <v>100</v>
@@ -10057,9 +10717,12 @@
         <v>8</v>
       </c>
       <c r="D93" s="1">
+        <v>0.54668674698795106</v>
+      </c>
+      <c r="E93" s="1">
         <v>0.75307566684812199</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>0.40361445783132499</v>
       </c>
       <c r="G93" s="1"/>
@@ -10070,22 +10733,28 @@
         <v>8</v>
       </c>
       <c r="J93" s="1">
+        <v>0.53681042617766295</v>
+      </c>
+      <c r="K93" s="1">
         <v>0.67688925843791703</v>
       </c>
-      <c r="K93" s="1">
+      <c r="L93" s="1">
         <v>0.53448135150575304</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:12">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="1">
+        <v>0.57379518072289104</v>
+      </c>
+      <c r="E94" s="1">
         <v>0.64184358555615995</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>0.52409638554216798</v>
       </c>
       <c r="G94" s="1"/>
@@ -10094,24 +10763,27 @@
         <v>9</v>
       </c>
       <c r="J94" s="1">
+        <v>0.87545716544670804</v>
+      </c>
+      <c r="K94" s="1">
         <v>0.59867321063393297</v>
       </c>
-      <c r="K94" s="1">
+      <c r="L94" s="1">
         <v>0.87423488125356996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:J39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
